--- a/docs/无人机IP修改.xlsx
+++ b/docs/无人机IP修改.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fly\UAVManage\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB80B69-3556-4D23-8B68-2053D747A703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85039E78-BCD8-448C-8D09-0AD67F63641A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
   <si>
     <t>地面站到--&gt;无人机</t>
   </si>
@@ -175,6 +175,46 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>QZ-P210-ROUTER-AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qz+r:\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qz+w:ok\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qz+w:192.168.50+155,123+123456\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qz+r:192.168.50.155+123+123456\r\n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230530协议更改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置IP+名称+密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询IP+名称+密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">wifi名称：暂定 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -204,12 +244,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -224,17 +276,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -515,36 +573,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" customWidth="1"/>
-    <col min="7" max="7" width="32.21875" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -567,7 +625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -593,7 +651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -619,7 +677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -645,7 +703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -671,7 +729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -697,7 +755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -723,12 +781,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -738,15 +796,85 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A11:G11"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>